--- a/CPP Page Ranks.xlsx
+++ b/CPP Page Ranks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\Fall 2021\4250 web search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F91C82CB-432E-4511-9426-A47BC7033DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E961A-280B-4BF5-B6CF-0D5007A67E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C43EC9C4-CC49-4E36-950A-01EA0470D270}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t>https://www.cpp.edu/</t>
   </si>
@@ -1534,9 +1534,6 @@
   </si>
   <si>
     <t>https://polycentric.cpp.edu/2021/07/in-memoriam-professor-emeritus-david-levering/</t>
-  </si>
-  <si>
-    <t>sum of page ranks</t>
   </si>
 </sst>
 </file>
@@ -1891,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE37501-3418-4580-AB23-6B0838EBEA26}">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1903,30 +1900,23 @@
     <col min="3" max="3" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B1">
         <v>4.81971816049033E-2</v>
       </c>
-      <c r="C1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>4.60964038358921E-2</v>
       </c>
-      <c r="C2">
-        <f>SUM(B:B)</f>
-        <v>0.93312651237293487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1934,7 +1924,7 @@
         <v>4.59086977821071E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1942,7 +1932,7 @@
         <v>4.5404461476296197E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>4.5089854851798498E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1958,7 +1948,7 @@
         <v>4.2042629891165903E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1956,7 @@
         <v>4.1528475194571E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +1964,7 @@
         <v>4.1441952633461898E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1982,7 +1972,7 @@
         <v>6.47665104309437E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>309</v>
       </c>
@@ -1990,7 +1980,7 @@
         <v>6.2234071303186901E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -1998,7 +1988,7 @@
         <v>6.0033709554868E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -2006,7 +1996,7 @@
         <v>5.98373030685714E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -2014,7 +2004,7 @@
         <v>5.9396663106797299E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2022,7 +2012,7 @@
         <v>5.9009487339096696E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -2030,7 +2020,7 @@
         <v>5.9009487339096696E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>

--- a/CPP Page Ranks.xlsx
+++ b/CPP Page Ranks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\Fall 2021\4250 web search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E961A-280B-4BF5-B6CF-0D5007A67E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E85727-E377-4A3C-BFFC-7DCBA76B66BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C43EC9C4-CC49-4E36-950A-01EA0470D270}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t>https://www.cpp.edu/</t>
   </si>
@@ -1534,6 +1534,9 @@
   </si>
   <si>
     <t>https://polycentric.cpp.edu/2021/07/in-memoriam-professor-emeritus-david-levering/</t>
+  </si>
+  <si>
+    <t>sum of page ranks</t>
   </si>
 </sst>
 </file>
@@ -1888,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE37501-3418-4580-AB23-6B0838EBEA26}">
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1900,23 +1903,30 @@
     <col min="3" max="3" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B1">
         <v>4.81971816049033E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>4.60964038358921E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <f>SUM(B:B)</f>
+        <v>0.93312651237293487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>4.59086977821071E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1932,7 +1942,7 @@
         <v>4.5404461476296197E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>4.5089854851798498E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>4.2042629891165903E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1956,7 +1966,7 @@
         <v>4.1528475194571E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>4.1441952633461898E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1972,7 +1982,7 @@
         <v>6.47665104309437E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>309</v>
       </c>
@@ -1980,7 +1990,7 @@
         <v>6.2234071303186901E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -1988,7 +1998,7 @@
         <v>6.0033709554868E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1996,7 +2006,7 @@
         <v>5.98373030685714E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>5.9396663106797299E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2012,7 +2022,7 @@
         <v>5.9009487339096696E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>5.9009487339096696E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
